--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_F/Haplogroupe_F.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_F/Haplogroupe_F.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En génétique humaine, l’haplogroupe F (M89) est un haplogroupe du chromosome Y. Il est le groupe-frère de l'haplogroupe C. Il serait apparu en Asie du Sud, d'où il se serait diffusé dans toute l'Eurasie, devenant avec ses descendants le principal haplogroupe masculin présent sur la planète.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe F est un haplogroupe relativement ancien, qui serait apparu sur le sous-continent indien ou au Moyen-Orient il y a environ 50 000 ans, peu après la dernière sortie d'Afrique d'Homo sapiens. On le trouve, lui ou sa descendance (voir ci-après), chez près de 80 % de la population masculine mondiale, étant seulement minoritaire en Afrique, en Asie orientale (Kazakhstan, Sibérie, Mongolie, Japon, Polynésie), ainsi que chez les Aborigènes d'Australie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe F est défini par la mutation M89.
 </t>
@@ -573,7 +589,9 @@
           <t>Sous-groupes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe F est le parent des sous-groupes basaux F*, F1, F2, F3, et F4, des haplogroupes dérivés G, H, I, J, K, ainsi que de leur descendance.
 </t>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
